--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2192445.412675082</v>
+        <v>2296625.047126153</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>159.0409711350001</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -716,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>101.4890679888092</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>155.7178087885197</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>21.5750115372822</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>106.3489655915249</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>101.3230871672206</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>80.58821765561218</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>160.8689487804739</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>6.49637072824935</v>
       </c>
       <c r="C8" t="n">
-        <v>60.03388914270815</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.01201317445399</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>33.06633421431975</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1427,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1579,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>177.0850116794024</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>182.1684078822036</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>18.52833786981365</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1825,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>178.2798710842936</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174141</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>36.86080948088104</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741712</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2132,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>243.530769037226</v>
+        <v>99.6514066310757</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>62.14989839348875</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>84.07981473403045</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>94.59703336213269</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>104.795004917596</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>74.75770077867834</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>64.35711883683474</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>134.0367616438396</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,19 +3243,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>21.8567702508375</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.5743639407145</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>80.5697888787481</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>41.16673120696711</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>69.83388910785339</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>18.16423677622371</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>220.2028736325136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>41.01175877060141</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>224.3745275802544</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1736.589769957181</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C2" t="n">
-        <v>1736.589769957181</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
@@ -4334,10 +4336,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4355,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2513.328941997114</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2513.328941997114</v>
+        <v>1969.461176090932</v>
       </c>
       <c r="Y2" t="n">
-        <v>2123.189610021303</v>
+        <v>1969.461176090932</v>
       </c>
     </row>
     <row r="3">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.4603107317583</v>
+        <v>676.468527222536</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577775</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>1004.449861629776</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X4" t="n">
-        <v>776.4603107317583</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="Y4" t="n">
-        <v>776.4603107317583</v>
+        <v>858.1169920527757</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1754.744438482647</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C5" t="n">
-        <v>1385.781921542236</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,13 +4582,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2653.460376100163</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2300.691720830048</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522581</v>
+        <v>1927.225962568968</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.344278546769</v>
+        <v>1537.086630593157</v>
       </c>
     </row>
     <row r="6">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>626.9042569062804</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C7" t="n">
-        <v>457.9680739783734</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4720,7 +4722,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.892308032319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1654.206423859145</v>
+        <v>1674.970203188976</v>
       </c>
       <c r="T7" t="n">
-        <v>1654.206423859145</v>
+        <v>1453.203587758503</v>
       </c>
       <c r="U7" t="n">
-        <v>1365.103556984789</v>
+        <v>1164.100720884146</v>
       </c>
       <c r="V7" t="n">
-        <v>1365.103556984789</v>
+        <v>1164.100720884146</v>
       </c>
       <c r="W7" t="n">
-        <v>1075.686386947828</v>
+        <v>874.6835508471855</v>
       </c>
       <c r="X7" t="n">
-        <v>847.6968360498105</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="Y7" t="n">
-        <v>626.9042569062804</v>
+        <v>646.6939999491682</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.53911114974</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.898819086399</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E8" t="n">
         <v>828.1105664881545</v>
@@ -4799,22 +4801,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,7 +4825,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213862</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>381.1049005553748</v>
+        <v>809.1878876062121</v>
       </c>
       <c r="C10" t="n">
-        <v>381.1049005553748</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783663</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577776</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408152</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X10" t="n">
-        <v>644.3338566427979</v>
+        <v>809.1878876062121</v>
       </c>
       <c r="Y10" t="n">
-        <v>423.5412774992677</v>
+        <v>809.1878876062121</v>
       </c>
     </row>
     <row r="11">
@@ -5033,25 +5035,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M12" t="n">
-        <v>1540.888753373307</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>554.5813165460164</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C13" t="n">
-        <v>385.6451336181095</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D13" t="n">
-        <v>235.5284942057738</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853353</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832655</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487559</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U13" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854698</v>
       </c>
       <c r="V13" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648811</v>
       </c>
       <c r="W13" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611851</v>
       </c>
       <c r="X13" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138333</v>
       </c>
       <c r="Y13" t="n">
-        <v>736.2297813762561</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
     <row r="14">
@@ -5267,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.1865537761979</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>781.250370848291</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>631.1337314359553</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>483.2206378535622</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>336.3306903556518</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5473,13 +5475,13 @@
         <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5510,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5552,13 +5554,13 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>2978.613657539998</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>3606.211621094605</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>985.7836617409695</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C19" t="n">
-        <v>816.8474788130626</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.432126571209</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,16 +5788,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5828,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>251.562654109227</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>746.8882603249857</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
         <v>1344.266747951538</v>
@@ -5884,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.8386896933887</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9025067654818</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
         <v>637.9025067654818</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1981.370942808024</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.686454602137</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W22" t="n">
-        <v>1437.269284565176</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.279733667159</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y22" t="n">
-        <v>988.4871545236284</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5981,52 +5983,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239597</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397185</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703114</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7243904253733</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="26">
@@ -6218,10 +6220,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6230,43 +6232,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249853</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951537</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>3838.083511855032</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2977.325134535464</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>2977.325134535464</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>2881.772575583815</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.859482001422</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503512</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218392</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>4151.857387650099</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>3897.172899444212</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>3607.755729407251</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X28" t="n">
-        <v>3379.766178509234</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y28" t="n">
-        <v>3158.973599365704</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1024.063349920563</v>
+        <v>2940.5785039035</v>
       </c>
       <c r="C31" t="n">
-        <v>855.1271669926557</v>
+        <v>2940.5785039035</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>2940.5785039035</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.70136564882</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>3343.01954787727</v>
       </c>
       <c r="Y31" t="n">
-        <v>1205.711814750802</v>
+        <v>3122.22696873374</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6679,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>3312.538429711218</v>
       </c>
       <c r="N33" t="n">
-        <v>1652.717886400351</v>
+        <v>3940.136393265825</v>
       </c>
       <c r="O33" t="n">
-        <v>2204.627616639638</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3023.484406741617</v>
+        <v>3336.216066251167</v>
       </c>
       <c r="C34" t="n">
-        <v>3023.484406741617</v>
+        <v>3167.27988332326</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741617</v>
+        <v>3017.163243910925</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159224</v>
+        <v>2869.250150328532</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661314</v>
+        <v>2722.360202830621</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>2555.164103545501</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398594</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053499</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.37685307644</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420638</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.617138214751</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.199968177791</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279774</v>
+        <v>3738.657110224937</v>
       </c>
       <c r="Y34" t="n">
-        <v>3205.132871571857</v>
+        <v>3517.864531081407</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,40 +6949,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>719.5738700011939</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>550.637687073287</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2001.532884941391</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1712.457658285589</v>
+        <v>1963.123159128057</v>
       </c>
       <c r="V37" t="n">
-        <v>1457.773170079702</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W37" t="n">
-        <v>1168.356000042741</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X37" t="n">
-        <v>940.366449144724</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>719.5738700011939</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7169,40 +7171,40 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7254,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3012.408157764292</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C40" t="n">
-        <v>2843.471974836385</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>2693.35533542405</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>2693.35533542405</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>2546.46538792614</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2379.26928864102</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328842</v>
+        <v>2193.56896730804</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.25592267304</v>
+        <v>1904.493740652238</v>
       </c>
       <c r="V40" t="n">
-        <v>3932.25592267304</v>
+        <v>1649.809252446351</v>
       </c>
       <c r="W40" t="n">
-        <v>3642.838752636079</v>
+        <v>1360.39208240939</v>
       </c>
       <c r="X40" t="n">
-        <v>3414.849201738062</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y40" t="n">
-        <v>3194.056622594532</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.240688199802</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.823518162841</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,31 +7666,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590559</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2233.355914590559</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2389.334518447046</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>2884.660124662805</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>3482.038612289356</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>3482.038612289356</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.2946447138415</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3584617859347</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2418223735989</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3287287912058</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>302.4387812932954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>135.2426820081753</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138415</v>
+        <v>906.400451171542</v>
       </c>
     </row>
   </sheetData>
@@ -23416,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>40.32043864788585</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>36.41624546989124</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>146.9958004224552</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>108.2431272522974</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>42.65370535201811</v>
+        <v>186.5330677581684</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>105.0969227051391</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>168.0578285897976</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>54.01843965607966</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>181.727993418995</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>73.85777223953401</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>82.07684380973443</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>6.257951202384305</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>196.7278831012573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>23.83108638657376</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>205.614685510496</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>99.12798163925675</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>147.5715612194349</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>147.3599015160451</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>5.506781756523537</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>99.28295407562246</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>27.76311574357362</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.366920277</v>
       </c>
     </row>
     <row r="6">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982122</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615781.3273982125</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982124</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982122</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.327398212</v>
-      </c>
       <c r="E2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.949767504</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675042</v>
@@ -26350,10 +26352,10 @@
         <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.752076855</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.752076855</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26457,7 +26459,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
     </row>
     <row r="5">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914301.1457389798</v>
+        <v>-914301.1457389802</v>
       </c>
       <c r="C6" t="n">
-        <v>414443.5999886126</v>
+        <v>414443.5999886129</v>
       </c>
       <c r="D6" t="n">
-        <v>414443.5999886125</v>
+        <v>414443.5999886128</v>
       </c>
       <c r="E6" t="n">
-        <v>164608.2060593871</v>
+        <v>164608.206059387</v>
       </c>
       <c r="F6" t="n">
-        <v>490020.6678667421</v>
+        <v>490020.6678667419</v>
       </c>
       <c r="G6" t="n">
-        <v>490020.6678667419</v>
+        <v>490020.6678667423</v>
       </c>
       <c r="H6" t="n">
         <v>490020.6678667419</v>
       </c>
       <c r="I6" t="n">
-        <v>490020.6678667424</v>
+        <v>490020.6678667418</v>
       </c>
       <c r="J6" t="n">
-        <v>272489.4654694648</v>
+        <v>272489.4654694647</v>
       </c>
       <c r="K6" t="n">
-        <v>490020.6678667421</v>
+        <v>490020.6678667423</v>
       </c>
       <c r="L6" t="n">
-        <v>490020.6678667418</v>
+        <v>490020.6678667425</v>
       </c>
       <c r="M6" t="n">
         <v>404965.6399312303</v>
@@ -26558,10 +26560,10 @@
         <v>490020.6678667421</v>
       </c>
       <c r="O6" t="n">
-        <v>490020.6678667423</v>
+        <v>490020.6678667421</v>
       </c>
       <c r="P6" t="n">
-        <v>490020.6678667424</v>
+        <v>490020.6678667421</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,28 +26810,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>195.6420704856828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>268.2420326896599</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>130.8051895480713</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>204.134643851755</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>248.334076029158</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>226.4291713029143</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>8.343935014435147</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>28.90007655096804</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>376.2374709352312</v>
       </c>
       <c r="C8" t="n">
-        <v>305.2390026282994</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27907,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>137.8199670074833</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>134.1804868843081</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28287,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-7.717795628634811e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28324,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28810,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-5.464171643889758e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837919</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31841,25 +31843,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M12" t="n">
-        <v>615.038144437878</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32072,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>277.4567226539314</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,28 +32314,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>574.6535388222615</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,22 +32548,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>144.237359508534</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>639.8517673857162</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>297.1808238847177</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>359.7678776111903</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>309.7666854143572</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>576.0573465136297</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>150.2061940096322</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>165.2255134509767</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P33" t="n">
-        <v>448.9178583921318</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>516.6542155585828</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>156.3072281639545</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>339.9772972286967</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>295.3955842839415</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004586</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M12" t="n">
-        <v>472.9041105158597</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35583,7 +35585,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066172</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35720,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>432.057294377817</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>6.395920534175052</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>508.510055302383</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>217.633843689172</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>171.212305634483</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>433.4611020691852</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>18.86448192629892</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>31.25110603664647</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P33" t="n">
-        <v>314.9434509778015</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>374.5201816365645</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317795</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>22.33282074962425</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>197.8432633066783</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>157.5541453095825</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2296625.047126153</v>
+        <v>2292612.43711216</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283193</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9528400.985994421</v>
+        <v>9528400.985994419</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>101.4890679888092</v>
+        <v>94.81275980261439</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>121.8283365204678</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>21.5750115372822</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>312.3150588154506</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>101.3230871672206</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>160.8689487804739</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>243.1026248363839</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.49637072824935</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>258.3345018800828</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097352</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>33.06633421431975</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>46.08403053184602</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>53.30076123484834</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>182.1684078822036</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>31.26260713377069</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>178.2798710842936</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174141</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812101</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>41.01175877060098</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.876045741712</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>99.6514066310757</v>
+        <v>147.6895341487378</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143092</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>84.07981473403045</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375803</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>104.795004917596</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560553</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>64.35711883683474</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>22.04658882052573</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>134.0367616438396</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>80.5697888787481</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>69.83388910785339</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>18.16423677622371</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>224.3745275802544</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1582.86133602681</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.898819086399</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4336,10 +4336,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4372,10 +4372,10 @@
         <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1969.461176090932</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y2" t="n">
-        <v>1969.461176090932</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>676.468527222536</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C4" t="n">
-        <v>507.5323442946291</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
         <v>66.5121164321834</v>
@@ -4521,19 +4521,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1300.952665464123</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1300.952665464123</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995254</v>
+        <v>1011.535495427162</v>
       </c>
       <c r="X4" t="n">
-        <v>858.1169920527757</v>
+        <v>783.5459445291447</v>
       </c>
       <c r="Y4" t="n">
-        <v>858.1169920527757</v>
+        <v>562.7533653856145</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>2291.674678112796</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4567,13 +4567,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2653.460376100163</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2300.691720830048</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X5" t="n">
-        <v>1927.225962568968</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="Y5" t="n">
-        <v>1537.086630593157</v>
+        <v>2678.274518176918</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4670,16 +4670,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4691,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646.6939999491682</v>
+        <v>798.5065461617548</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>629.570363233848</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1674.970203188976</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T7" t="n">
-        <v>1453.203587758503</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U7" t="n">
-        <v>1164.100720884146</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V7" t="n">
-        <v>1164.100720884146</v>
+        <v>1200.947590135525</v>
       </c>
       <c r="W7" t="n">
-        <v>874.6835508471855</v>
+        <v>1200.947590135525</v>
       </c>
       <c r="X7" t="n">
-        <v>646.6939999491682</v>
+        <v>1200.947590135525</v>
       </c>
       <c r="Y7" t="n">
-        <v>646.6939999491682</v>
+        <v>980.1550109919946</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555.338782035317</v>
+        <v>1904.487375535341</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>1535.524858594929</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881545</v>
+        <v>1177.259159988179</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>791.4709073899346</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>380.4850026003271</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>369.4529564857276</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939511</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296689</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052372</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609174</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.31515313627</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.31515313627</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410106</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2630.721789066535</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2277.953133796421</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645724</v>
+        <v>1904.487375535341</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669912</v>
+        <v>1904.487375535341</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215814</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>809.1878876062121</v>
+        <v>726.2447449267049</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>557.308561998798</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>407.1919225864623</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>259.2788290040692</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>259.2788290040692</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>259.2788290040692</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>113.0616422219269</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279957</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764921</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760413</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.07675150232</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.464090846022</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1356.675339798492</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1356.675339798492</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>1356.675339798492</v>
       </c>
       <c r="X10" t="n">
-        <v>809.1878876062121</v>
+        <v>1128.685788900475</v>
       </c>
       <c r="Y10" t="n">
-        <v>809.1878876062121</v>
+        <v>907.8932097569447</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>550.637687073287</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C13" t="n">
-        <v>550.637687073287</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853353</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580253</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832655</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487559</v>
+        <v>2326.07822707019</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510501</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854698</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648811</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611851</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138333</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y13" t="n">
-        <v>732.2861519035267</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075806</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910814</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5554,13 +5554,13 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>2381.235169913446</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>2978.613657539998</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3606.211621094605</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3584617859342</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>597.2418223735984</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>449.3287287912053</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>302.4387812932949</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>135.2426820081749</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192275</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111685</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075781</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,16 +5788,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1876.803094014472</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1876.803094014472</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K24" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>866.4638174991043</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y25" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L27" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3210.485548300425</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3838.083511855032</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1547.449290305074</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.459739407057</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2940.5785039035</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>2940.5785039035</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D31" t="n">
-        <v>2940.5785039035</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.01954787727</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>3122.22696873374</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2715.159942084666</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3312.538429711218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3940.136393265825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3336.216066251167</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>3167.27988332326</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D34" t="n">
-        <v>3017.163243910925</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>2869.250150328532</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2722.360202830621</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2555.164103545501</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3966.646661122954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3738.657110224937</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>3517.864531081407</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6922,25 +6922,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,10 +6964,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2193.56896730804</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1904.493740652238</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1649.809252446351</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1360.39208240939</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958734</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>633.9926444679666</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>483.8760050556308</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>335.9629114732377</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>335.9629114732377</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261132</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7730,16 +7730,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>724.7519863413023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1644.59975125005</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1355.182581213089</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1127.193030315072</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.400451171542</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>127.7255247667962</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>36.41624546989124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>35.11263957635095</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>108.2431272522974</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>99.28295407562291</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>186.5330677581684</v>
+        <v>138.4949402405064</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>138.4949402405064</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>168.0578285897976</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>181.727993418995</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>82.07684380973443</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>126.5688841976866</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.257951202384305</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>205.614685510496</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>147.5715612194349</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>147.3599015160451</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>27.76311574357362</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>820565.366920277</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202774</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982119</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675042</v>
@@ -26368,16 +26368,16 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.660247097694083e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.411051637268272e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820616</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.752076855</v>
+        <v>14216.75207685497</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.752076855</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685503</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26444,13 +26444,13 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685497</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26475,13 +26475,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613934</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26496,7 +26496,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914301.1457389802</v>
+        <v>-914301.1457389798</v>
       </c>
       <c r="C6" t="n">
-        <v>414443.5999886129</v>
+        <v>414443.5999886126</v>
       </c>
       <c r="D6" t="n">
-        <v>414443.5999886128</v>
+        <v>414443.5999886118</v>
       </c>
       <c r="E6" t="n">
-        <v>164608.206059387</v>
+        <v>164260.8268050304</v>
       </c>
       <c r="F6" t="n">
-        <v>490020.6678667419</v>
+        <v>489673.2886123853</v>
       </c>
       <c r="G6" t="n">
-        <v>490020.6678667423</v>
+        <v>489673.2886123855</v>
       </c>
       <c r="H6" t="n">
-        <v>490020.6678667419</v>
+        <v>489673.2886123852</v>
       </c>
       <c r="I6" t="n">
-        <v>490020.6678667418</v>
+        <v>489673.2886123851</v>
       </c>
       <c r="J6" t="n">
-        <v>272489.4654694647</v>
+        <v>272142.0862151078</v>
       </c>
       <c r="K6" t="n">
-        <v>490020.6678667423</v>
+        <v>489673.2886123849</v>
       </c>
       <c r="L6" t="n">
-        <v>490020.6678667425</v>
+        <v>489673.2886123853</v>
       </c>
       <c r="M6" t="n">
-        <v>404965.6399312303</v>
+        <v>404618.2606768733</v>
       </c>
       <c r="N6" t="n">
-        <v>490020.6678667421</v>
+        <v>489673.2886123851</v>
       </c>
       <c r="O6" t="n">
-        <v>490020.6678667421</v>
+        <v>489673.2886123852</v>
       </c>
       <c r="P6" t="n">
-        <v>490020.6678667421</v>
+        <v>489673.2886123851</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973553</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973553</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>268.2420326896599</v>
+        <v>274.9183408758547</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>164.3835016851451</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>204.134643851755</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>52.95783295555691</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>226.4291713029143</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>28.90007655096804</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>9.03501848744412</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.2374709352312</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>36.27326250723763</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>134.1804868843081</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>50.26838987799204</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-7.717795628634811e-12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-1.736439038534721e-12</v>
       </c>
     </row>
     <row r="30">
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970223</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,46 +31673,46 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>436.0678650906011</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>574.6535388222615</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067199</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N21" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K24" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>576.0573465136297</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P30" t="n">
-        <v>165.2255134509767</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>200.3460366764704</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525778</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.633379393484</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789377</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>395.0475418999253</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066172</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>138.9023428740572</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191357</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>432.057294377817</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.53969023631402</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N21" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>433.4611020691852</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P30" t="n">
-        <v>31.25110603664647</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>57.74979223202591</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317795</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2292612.43711216</v>
+        <v>2294372.967414946</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>78.78083674901981</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>94.81275980261439</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>121.8283365204678</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>312.3150588154506</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>148.2863188203545</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V7" t="n">
-        <v>243.1026248363839</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>258.3345018800828</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292584</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506832</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734097352</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>142.5647726587057</v>
       </c>
       <c r="I10" t="n">
-        <v>46.08403053184602</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004727</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>47.84205650381972</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>53.30076123484834</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>31.26260713377069</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812101</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012163</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487378</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41.33703994143092</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>80.10107535865899</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
-        <v>176.1811323375803</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560553</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428251</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>22.04658882052573</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>41.33703994142957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>200.7318143881578</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>115.4764219077138</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>179.2499669408062</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4330,7 +4330,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4369,13 +4369,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>1976.204921733553</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="3">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381.1049005553748</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>381.1049005553748</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>381.1049005553748</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1300.952665464123</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>1300.952665464123</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W4" t="n">
-        <v>1011.535495427162</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>783.5459445291447</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>562.7533653856145</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2291.674678112796</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3065.530992711665</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176918</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="X5" t="n">
-        <v>2678.274518176918</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y5" t="n">
-        <v>2678.274518176918</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4670,16 +4670,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4691,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>798.5065461617548</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>629.570363233848</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>479.4537238215122</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1200.947590135525</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1200.947590135525</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>1200.947590135525</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>980.1550109919946</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1904.487375535341</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1535.524858594929</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.259159988179</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>791.4709073899346</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>380.4850026003271</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>369.4529564857276</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927146</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218349</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939511</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296689</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052372</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609174</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.31515313627</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.31515313627</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410106</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066535</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796421</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535341</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535341</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218349</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215814</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410637</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>726.2447449267049</v>
+        <v>752.7622949738568</v>
       </c>
       <c r="C10" t="n">
-        <v>557.308561998798</v>
+        <v>752.7622949738568</v>
       </c>
       <c r="D10" t="n">
-        <v>407.1919225864623</v>
+        <v>602.645655561521</v>
       </c>
       <c r="E10" t="n">
-        <v>259.2788290040692</v>
+        <v>454.7325619791279</v>
       </c>
       <c r="F10" t="n">
-        <v>259.2788290040692</v>
+        <v>307.8426144812175</v>
       </c>
       <c r="G10" t="n">
-        <v>259.2788290040692</v>
+        <v>307.8426144812175</v>
       </c>
       <c r="H10" t="n">
-        <v>113.0616422219269</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218349</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791191</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279957</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764921</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760413</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.07675150232</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846022</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798492</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.675339798492</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
-        <v>1356.675339798492</v>
+        <v>1383.192889845644</v>
       </c>
       <c r="X10" t="n">
-        <v>1128.685788900475</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y10" t="n">
-        <v>907.8932097569447</v>
+        <v>934.4107598040965</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.07903472198</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>473.9330993947872</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>323.8164599824514</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2326.07822707019</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797788</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2415.384692536053</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2415.384692536053</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,43 +5746,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192275</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111685</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075781</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348534</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516147</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348534</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138424</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703123</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6214,25 +6214,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107579</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6244,19 +6244,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6454,58 +6454,58 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270452</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.8431516380886</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101817</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
         <v>402.7245934908939</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6946,13 +6946,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7077,22 +7077,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424041</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1774.701672037622</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1520.017183831735</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1230.600013794774</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1002.610462896757</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>781.8178837532264</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7833,7 +7833,7 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
         <v>2035.268256189238</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>127.7255247667962</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.11263957635095</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405064</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>138.4949402405064</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194134</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>126.5688841976866</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>85.45266000108637</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>820565.3669202774</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="12">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982119</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675047</v>
-      </c>
       <c r="G2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.949767504</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="I2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="J2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
@@ -26349,13 +26349,13 @@
         <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26368,37 +26368,37 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.660247097694083e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>2.411051637268272e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>93403.78684820638</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820616</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685512</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26444,13 +26444,13 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26475,13 +26475,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613934</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26496,7 +26496,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914301.1457389798</v>
+        <v>-914301.14573898</v>
       </c>
       <c r="C6" t="n">
         <v>414443.5999886126</v>
       </c>
       <c r="D6" t="n">
-        <v>414443.5999886118</v>
+        <v>414443.5999886133</v>
       </c>
       <c r="E6" t="n">
-        <v>164260.8268050304</v>
+        <v>164573.4681339509</v>
       </c>
       <c r="F6" t="n">
-        <v>489673.2886123853</v>
+        <v>489985.9299413062</v>
       </c>
       <c r="G6" t="n">
-        <v>489673.2886123855</v>
+        <v>489985.9299413063</v>
       </c>
       <c r="H6" t="n">
-        <v>489673.2886123852</v>
+        <v>489985.9299413062</v>
       </c>
       <c r="I6" t="n">
-        <v>489673.2886123851</v>
+        <v>489985.9299413065</v>
       </c>
       <c r="J6" t="n">
-        <v>272142.0862151078</v>
+        <v>272454.727544029</v>
       </c>
       <c r="K6" t="n">
-        <v>489673.2886123849</v>
+        <v>489985.9299413064</v>
       </c>
       <c r="L6" t="n">
-        <v>489673.2886123853</v>
+        <v>489985.9299413064</v>
       </c>
       <c r="M6" t="n">
-        <v>404618.2606768733</v>
+        <v>404930.9020057943</v>
       </c>
       <c r="N6" t="n">
-        <v>489673.2886123851</v>
+        <v>489985.9299413066</v>
       </c>
       <c r="O6" t="n">
-        <v>489673.2886123852</v>
+        <v>489985.9299413062</v>
       </c>
       <c r="P6" t="n">
-        <v>489673.2886123851</v>
+        <v>489985.9299413062</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022935</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26965,19 +26965,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>303.9530049144607</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>274.9183408758547</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>164.3835016851451</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>172.2573809594889</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>52.95783295555691</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>55.63165131926567</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V7" t="n">
-        <v>9.03501848744412</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>36.27326250723763</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194517</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.190242255615118</v>
       </c>
       <c r="I10" t="n">
-        <v>50.26838987799204</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-1.736439038534721e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974801</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003814</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095028</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781693</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970223</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297391</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098822</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>436.0678650906011</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067199</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643557995</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643557995</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33438,7 +33438,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129119</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597725</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013295</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525778</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701983</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>302.0934576762708</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191357</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.53969023631402</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113551</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113551</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37086,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
